--- a/TestData/SmokeTest.xlsx
+++ b/TestData/SmokeTest.xlsx
@@ -373,9 +373,6 @@
     <t>revanth@cxagroup.com</t>
   </si>
   <si>
-    <t>1 Jan 2000</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -403,12 +400,6 @@
     <t>EXEC</t>
   </si>
   <si>
-    <t>Test1Unit</t>
-  </si>
-  <si>
-    <t>Test1Division</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -559,7 +550,16 @@
     <t>Format</t>
   </si>
   <si>
-    <t>AutoTestEmp1</t>
+    <t>1 Jan 1990</t>
+  </si>
+  <si>
+    <t>SmokeTest_Feb12</t>
+  </si>
+  <si>
+    <t>SmokeTestDivision</t>
+  </si>
+  <si>
+    <t>NewHireEmp1</t>
   </si>
 </sst>
 </file>
@@ -686,13 +686,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0904DA20-A33C-4EE2-96DA-192CFE7D1E54}" diskRevisions="1" revisionId="320" version="68">
-  <header guid="{D9AC0ABE-5EED-4ACE-8F0C-6C050449EA62}" dateTime="2017-01-12T18:01:00" maxSheetId="3" userName="Revanth Kumar" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CFA56182-6ECF-4FC2-9FF6-10723AD640D4}" diskRevisions="1" revisionId="334" version="76">
   <header guid="{24556299-7677-495C-9DF8-79758CAAB78B}" dateTime="2017-01-20T11:02:41" maxSheetId="3" userName="Revanth Kumar" r:id="rId2" minRId="1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1109,11 +1103,88 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{9566AAA3-9F61-4C6E-BF55-A750D346EA5D}" dateTime="2017-02-06T10:21:45" maxSheetId="4" userName="Revanth Kumar" r:id="rId69" minRId="321">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5DCA12F4-63B8-417A-B014-85C1D7BE5ABC}" dateTime="2017-02-09T12:02:59" maxSheetId="4" userName="Revanth Kumar" r:id="rId70" minRId="322" maxRId="324">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5308809A-C154-45AB-BC52-5481CD3A4E2F}" dateTime="2017-02-09T13:03:00" maxSheetId="4" userName="Revanth Kumar" r:id="rId71" minRId="325">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{729196AE-76ED-4C04-9A2F-CE8F4F5C3EB9}" dateTime="2017-02-09T13:16:02" maxSheetId="4" userName="Revanth Kumar" r:id="rId72" minRId="326">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{704D3E69-1A04-4D69-AFC0-BC09CFED29C3}" dateTime="2017-02-09T13:41:00" maxSheetId="4" userName="Revanth Kumar" r:id="rId73" minRId="327">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D311E1D7-8DEE-4643-9F77-7BC9EFDA68EA}" dateTime="2017-02-12T23:06:47" maxSheetId="4" userName="Revanth Kumar" r:id="rId74" minRId="328">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{24FADD35-841B-4C17-97BD-92383F5041B0}" dateTime="2017-02-12T23:08:13" maxSheetId="4" userName="Revanth Kumar" r:id="rId75" minRId="329" maxRId="332">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CFA56182-6ECF-4FC2-9FF6-10723AD640D4}" dateTime="2017-02-13T09:42:44" maxSheetId="4" userName="Revanth Kumar" r:id="rId76" minRId="333" maxRId="334">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="333" sId="1">
+    <oc r="B4">
+      <f>A4</f>
+    </oc>
+    <nc r="B4">
+      <f>A4</f>
+    </nc>
+  </rcc>
+  <rcc rId="334" sId="1">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp1</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>NewHireEmp1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11578,6 +11649,24 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog69.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" sqref="C2" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="321" sId="3" numFmtId="19">
+    <oc r="B2">
+      <v>42759</v>
+    </oc>
+    <nc r="B2">
+      <f>TODAY()</f>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="10" sId="2">
@@ -11799,6 +11888,159 @@
     </nc>
   </rcc>
   <rsnm rId="17" sheetId="2" oldName="[SmokeTest.xlsx]Sheet1" newName="[SmokeTest.xlsx]CreationOfDependant"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="322" sId="1">
+    <oc r="C4">
+      <f>A4</f>
+    </oc>
+    <nc r="C4">
+      <f>B4</f>
+    </nc>
+  </rcc>
+  <rcc rId="323" sId="1">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>AutoTestEmp1</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="324" sId="1">
+    <oc r="B4">
+      <f>A4</f>
+    </oc>
+    <nc r="B4">
+      <f>A4</f>
+    </nc>
+  </rcc>
+  <rcv guid="{8FD49069-1963-4047-8679-2BEC77C96347}" action="delete"/>
+  <rcv guid="{8FD49069-1963-4047-8679-2BEC77C96347}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog71.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="325" sId="1">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp1</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp2</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="326" sId="1">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp2</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp3</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="327" sId="1">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp3</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp4</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog74.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="328" sId="1">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp4</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>AutoEmp1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog75.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="329" sId="1" quotePrefix="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>1 Jan 2000</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>1 Jan 1990</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="330" sId="1">
+    <oc r="V4">
+      <v>17</v>
+    </oc>
+    <nc r="V4">
+      <v>27</v>
+    </nc>
+  </rcc>
+  <rcc rId="331" sId="1">
+    <oc r="AA4" t="inlineStr">
+      <is>
+        <t>Test1Unit</t>
+      </is>
+    </oc>
+    <nc r="AA4" t="inlineStr">
+      <is>
+        <t>SmokeTest_Feb12</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="AB4" start="0" length="0"/>
+  <rcc rId="332" sId="1">
+    <oc r="AB4" t="inlineStr">
+      <is>
+        <t>Test1Division</t>
+      </is>
+    </oc>
+    <nc r="AB4" t="inlineStr">
+      <is>
+        <t>SmokeTestDivision</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -12116,19 +12358,20 @@
   <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.26953125" customWidth="1"/>
     <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="9.7265625" bestFit="1" customWidth="1"/>
@@ -12295,7 +12538,7 @@
         <v>51</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -12459,7 +12702,7 @@
         <v>51</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:54" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -12623,7 +12866,7 @@
         <v>54</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
@@ -12632,88 +12875,88 @@
       </c>
       <c r="B4" t="str">
         <f>A4</f>
-        <v>AutoTestEmp1</v>
+        <v>NewHireEmp1</v>
       </c>
       <c r="C4" t="str">
-        <f>A4</f>
-        <v>AutoTestEmp1</v>
+        <f>B4</f>
+        <v>NewHireEmp1</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
         <v>114</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>115</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>116</v>
       </c>
-      <c r="H4" t="s">
-        <v>117</v>
-      </c>
       <c r="I4" s="8" t="str">
-        <f>Formula!B3</f>
-        <v>24 Jan 2017</v>
+        <f ca="1">Formula!B3</f>
+        <v>13 Feb 2017</v>
       </c>
       <c r="O4" t="str">
-        <f>I4</f>
-        <v>24 Jan 2017</v>
+        <f ca="1">I4</f>
+        <v>13 Feb 2017</v>
       </c>
       <c r="P4">
         <v>10000</v>
       </c>
       <c r="S4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" t="s">
         <v>118</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>119</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
         <v>120</v>
       </c>
-      <c r="V4">
-        <v>17</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>121</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>122</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC4" t="s">
         <v>123</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>126</v>
       </c>
       <c r="AE4">
         <v>10000</v>
       </c>
       <c r="AF4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AQ4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="BA4">
         <v>1</v>
       </c>
       <c r="BB4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{8FD49069-1963-4047-8679-2BEC77C96347}">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -12755,10 +12998,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -12776,19 +13019,19 @@
         <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>11</v>
@@ -12797,19 +13040,19 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>48</v>
@@ -12818,48 +13061,48 @@
         <v>49</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -12877,19 +13120,19 @@
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
@@ -12898,19 +13141,19 @@
         <v>12</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>48</v>
@@ -12919,40 +13162,40 @@
         <v>49</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="X2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -12975,19 +13218,19 @@
         <v>92</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>97</v>
@@ -12999,16 +13242,16 @@
         <v>101</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>57</v>
@@ -13017,19 +13260,19 @@
         <v>56</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>109</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>104</v>
@@ -13038,72 +13281,72 @@
         <v>53</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>CreationOfEmployee!A4</f>
-        <v>AutoTestEmp1</v>
+        <v>NewHireEmp1</v>
       </c>
       <c r="B4" t="str">
         <f>A4&amp;"Spouse"</f>
-        <v>AutoTestEmp1Spouse</v>
+        <v>NewHireEmp1Spouse</v>
       </c>
       <c r="C4" t="str">
         <f>B4</f>
-        <v>AutoTestEmp1Spouse</v>
+        <v>NewHireEmp1Spouse</v>
       </c>
       <c r="D4" t="str">
         <f>C4</f>
-        <v>AutoTestEmp1Spouse</v>
+        <v>NewHireEmp1Spouse</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N4" s="8" t="str">
-        <f>Formula!B3</f>
-        <v>24 Jan 2017</v>
+        <f ca="1">Formula!B3</f>
+        <v>13 Feb 2017</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U4" s="8" t="str">
         <f>H4</f>
@@ -13111,7 +13354,7 @@
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8" t="s">
@@ -13119,80 +13362,80 @@
       </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB4" t="s">
         <v>1</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>CreationOfEmployee!A4</f>
-        <v>AutoTestEmp1</v>
+        <v>NewHireEmp1</v>
       </c>
       <c r="B5" t="str">
         <f>A5&amp;"Child1"</f>
-        <v>AutoTestEmp1Child1</v>
+        <v>NewHireEmp1Child1</v>
       </c>
       <c r="C5" t="str">
         <f>B5</f>
-        <v>AutoTestEmp1Child1</v>
+        <v>NewHireEmp1Child1</v>
       </c>
       <c r="D5" t="str">
         <f>C5</f>
-        <v>AutoTestEmp1Child1</v>
+        <v>NewHireEmp1Child1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N5" s="8" t="str">
-        <f>N4</f>
-        <v>24 Jan 2017</v>
+        <f ca="1">N4</f>
+        <v>13 Feb 2017</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U5" s="8" t="str">
         <f>H5</f>
         <v>Child</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
@@ -13201,21 +13444,21 @@
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AB5" t="s">
         <v>1</v>
       </c>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
@@ -13237,7 +13480,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -13250,21 +13493,23 @@
     <col min="3" max="3" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" s="9">
-        <v>42759</v>
-      </c>
+        <f ca="1">TODAY()</f>
+        <v>42779</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B3" t="str">
-        <f>TEXT(B2,"dd mmm yyyy")</f>
-        <v>24 Jan 2017</v>
+        <f ca="1">TEXT(B2,"dd mmm yyyy")</f>
+        <v>13 Feb 2017</v>
       </c>
     </row>
   </sheetData>
